--- a/example_out/example_out__eval.xlsx
+++ b/example_out/example_out__eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>chamber_center_coords</t>
   </si>
@@ -49,109 +49,439 @@
     <t>angle_h_abs_chamber</t>
   </si>
   <si>
+    <t>W3-6400-3200-nr25_1765102289480</t>
+  </si>
+  <si>
+    <t>G36-6400-6400-nr22_1765068712440</t>
+  </si>
+  <si>
+    <t>G36-6400-1600-nr21_1765068576120</t>
+  </si>
+  <si>
+    <t>G36-6400-1600-nr16_1765067449440</t>
+  </si>
+  <si>
+    <t>G36-6400-1600-nr16_1765067248000</t>
+  </si>
+  <si>
+    <t>G36-6400-6400-nr22_1765068667400</t>
+  </si>
+  <si>
+    <t>G36-6400-1600-nr21_1765068391440</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr23_1765102100040</t>
+  </si>
+  <si>
+    <t>G36-6400-6400-nr22_1765068751200</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr6_990</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr14_1765108836480</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr14_1765108833040</t>
+  </si>
+  <si>
+    <t>W3-6400-3200-nr25_1765102275880</t>
+  </si>
+  <si>
+    <t>W3-6400-3200-nr25_1765102312400</t>
+  </si>
+  <si>
     <t>W3-6400-3200-nr25_1765102312160</t>
   </si>
   <si>
     <t>G36-6400-1600-nr16_1765067383880</t>
   </si>
   <si>
-    <t>G36-6400-1600-nr21_1765068391440</t>
-  </si>
-  <si>
-    <t>W3-6400-3200-nr25_1765102312400</t>
-  </si>
-  <si>
-    <t>G36-6400-1600-nr16_1765067248000</t>
-  </si>
-  <si>
-    <t>G36-6400-3200-nr6_990</t>
+    <t>G36-6400-3200-nr6_13497</t>
+  </si>
+  <si>
+    <t>G36-6400-1600-nr21_1765068523680</t>
+  </si>
+  <si>
+    <t>G36-6400-6400-nr22_1765068633200</t>
+  </si>
+  <si>
+    <t>G36-6400-1600-nr21_1765068478120</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr14_1765108788840</t>
+  </si>
+  <si>
+    <t>G36-6400-1600-nr21_1765068453440</t>
   </si>
   <si>
     <t>G36-6400-1600-nr16_1765067523240</t>
   </si>
   <si>
-    <t>(807, 516)</t>
-  </si>
-  <si>
-    <t>(1033, 443)</t>
-  </si>
-  <si>
-    <t>(926, 499)</t>
-  </si>
-  <si>
-    <t>(805, 522)</t>
-  </si>
-  <si>
-    <t>(999, 408)</t>
-  </si>
-  <si>
-    <t>(1002, 772)</t>
-  </si>
-  <si>
-    <t>(1010, 404)</t>
-  </si>
-  <si>
-    <t>(1175, 439)</t>
-  </si>
-  <si>
-    <t>(1362, 653)</t>
-  </si>
-  <si>
-    <t>(525, 709)</t>
-  </si>
-  <si>
-    <t>(1178, 444)</t>
-  </si>
-  <si>
-    <t>(616, 583)</t>
-  </si>
-  <si>
-    <t>(650, 1243)</t>
-  </si>
-  <si>
-    <t>(1087, 4)</t>
-  </si>
-  <si>
-    <t>(740, 633)</t>
-  </si>
-  <si>
-    <t>(837, 280)</t>
-  </si>
-  <si>
-    <t>(718, 535)</t>
-  </si>
-  <si>
-    <t>(682, 384)</t>
-  </si>
-  <si>
-    <t>(785, 538)</t>
-  </si>
-  <si>
-    <t>(815, 440)</t>
-  </si>
-  <si>
-    <t>(799, 264)</t>
-  </si>
-  <si>
-    <t>(904, 382)</t>
-  </si>
-  <si>
-    <t>(1205, 550)</t>
-  </si>
-  <si>
-    <t>(1137, 518)</t>
-  </si>
-  <si>
-    <t>(978, 652)</t>
-  </si>
-  <si>
-    <t>(1239, 323)</t>
-  </si>
-  <si>
-    <t>(1289, 786)</t>
-  </si>
-  <si>
-    <t>(1191, 528)</t>
+    <t>G36-6400-3200-nr23_1765102135600</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr6_8448</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr23_1765102075080</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr14_1765108834480</t>
+  </si>
+  <si>
+    <t>G36-6400-3200-nr23_1765102057520</t>
+  </si>
+  <si>
+    <t>G36-6400-6400-nr22_1765068632160</t>
+  </si>
+  <si>
+    <t>(813, 542)</t>
+  </si>
+  <si>
+    <t>(931, 496)</t>
+  </si>
+  <si>
+    <t>(912, 522)</t>
+  </si>
+  <si>
+    <t>(1005, 416)</t>
+  </si>
+  <si>
+    <t>(1003, 421)</t>
+  </si>
+  <si>
+    <t>(939, 527)</t>
+  </si>
+  <si>
+    <t>(914, 529)</t>
+  </si>
+  <si>
+    <t>(1007, 816)</t>
+  </si>
+  <si>
+    <t>(912, 491)</t>
+  </si>
+  <si>
+    <t>(1035, 740)</t>
+  </si>
+  <si>
+    <t>(956, 541)</t>
+  </si>
+  <si>
+    <t>(952, 536)</t>
+  </si>
+  <si>
+    <t>(815, 517)</t>
+  </si>
+  <si>
+    <t>(805, 500)</t>
+  </si>
+  <si>
+    <t>(815, 502)</t>
+  </si>
+  <si>
+    <t>(1007, 400)</t>
+  </si>
+  <si>
+    <t>(1014, 714)</t>
+  </si>
+  <si>
+    <t>(930, 498)</t>
+  </si>
+  <si>
+    <t>(890, 506)</t>
+  </si>
+  <si>
+    <t>(930, 488)</t>
+  </si>
+  <si>
+    <t>(932, 559)</t>
+  </si>
+  <si>
+    <t>(893, 488)</t>
+  </si>
+  <si>
+    <t>(1005, 400)</t>
+  </si>
+  <si>
+    <t>(1007, 823)</t>
+  </si>
+  <si>
+    <t>(1015, 748)</t>
+  </si>
+  <si>
+    <t>(1006, 823)</t>
+  </si>
+  <si>
+    <t>(966, 535)</t>
+  </si>
+  <si>
+    <t>(992, 796)</t>
+  </si>
+  <si>
+    <t>(890, 517)</t>
+  </si>
+  <si>
+    <t>(805, 146)</t>
+  </si>
+  <si>
+    <t>(1349, 619)</t>
+  </si>
+  <si>
+    <t>(713, 900)</t>
+  </si>
+  <si>
+    <t>(642, 628)</t>
+  </si>
+  <si>
+    <t>(616, 578)</t>
+  </si>
+  <si>
+    <t>(1168, 879)</t>
+  </si>
+  <si>
+    <t>(525, 705)</t>
+  </si>
+  <si>
+    <t>(1177, 890)</t>
+  </si>
+  <si>
+    <t>(1050, 91)</t>
+  </si>
+  <si>
+    <t>(649, 1249)</t>
+  </si>
+  <si>
+    <t>(1267, 304)</t>
+  </si>
+  <si>
+    <t>(1213, 245)</t>
+  </si>
+  <si>
+    <t>(534, 275)</t>
+  </si>
+  <si>
+    <t>(1179, 448)</t>
+  </si>
+  <si>
+    <t>(1178, 441)</t>
+  </si>
+  <si>
+    <t>(1363, 653)</t>
+  </si>
+  <si>
+    <t>(1529, 1121)</t>
+  </si>
+  <si>
+    <t>(1314, 704)</t>
+  </si>
+  <si>
+    <t>(483, 546)</t>
+  </si>
+  <si>
+    <t>(1181, 152)</t>
+  </si>
+  <si>
+    <t>(590, 711)</t>
+  </si>
+  <si>
+    <t>(858, 71)</t>
+  </si>
+  <si>
+    <t>(1090, 1)</t>
+  </si>
+  <si>
+    <t>(838, 887)</t>
+  </si>
+  <si>
+    <t>(1211, 174)</t>
+  </si>
+  <si>
+    <t>(1104, 635)</t>
+  </si>
+  <si>
+    <t>(1237, 271)</t>
+  </si>
+  <si>
+    <t>(910, 639)</t>
+  </si>
+  <si>
+    <t>(488, 599)</t>
+  </si>
+  <si>
+    <t>(711, 374)</t>
+  </si>
+  <si>
+    <t>(759, 387)</t>
+  </si>
+  <si>
+    <t>(742, 409)</t>
+  </si>
+  <si>
+    <t>(836, 302)</t>
+  </si>
+  <si>
+    <t>(848, 515)</t>
+  </si>
+  <si>
+    <t>(770, 408)</t>
+  </si>
+  <si>
+    <t>(739, 534)</t>
+  </si>
+  <si>
+    <t>(862, 771)</t>
+  </si>
+  <si>
+    <t>(737, 387)</t>
+  </si>
+  <si>
+    <t>(876, 486)</t>
+  </si>
+  <si>
+    <t>(806, 431)</t>
+  </si>
+  <si>
+    <t>(792, 439)</t>
+  </si>
+  <si>
+    <t>(633, 503)</t>
+  </si>
+  <si>
+    <t>(683, 411)</t>
+  </si>
+  <si>
+    <t>(721, 584)</t>
+  </si>
+  <si>
+    <t>(841, 285)</t>
+  </si>
+  <si>
+    <t>(848, 470)</t>
+  </si>
+  <si>
+    <t>(760, 385)</t>
+  </si>
+  <si>
+    <t>(721, 393)</t>
+  </si>
+  <si>
+    <t>(753, 393)</t>
+  </si>
+  <si>
+    <t>(750, 566)</t>
+  </si>
+  <si>
+    <t>(723, 375)</t>
+  </si>
+  <si>
+    <t>(837, 290)</t>
+  </si>
+  <si>
+    <t>(864, 809)</t>
+  </si>
+  <si>
+    <t>(847, 501)</t>
+  </si>
+  <si>
+    <t>(861, 785)</t>
+  </si>
+  <si>
+    <t>(807, 436)</t>
+  </si>
+  <si>
+    <t>(861, 819)</t>
+  </si>
+  <si>
+    <t>(727, 395)</t>
+  </si>
+  <si>
+    <t>(885, 696)</t>
+  </si>
+  <si>
+    <t>(1076, 620)</t>
+  </si>
+  <si>
+    <t>(1059, 629)</t>
+  </si>
+  <si>
+    <t>(1142, 524)</t>
+  </si>
+  <si>
+    <t>(1189, 344)</t>
+  </si>
+  <si>
+    <t>(1110, 643)</t>
+  </si>
+  <si>
+    <t>(1086, 524)</t>
+  </si>
+  <si>
+    <t>(1142, 871)</t>
+  </si>
+  <si>
+    <t>(1052, 616)</t>
+  </si>
+  <si>
+    <t>(1319, 815)</t>
+  </si>
+  <si>
+    <t>(1089, 662)</t>
+  </si>
+  <si>
+    <t>(1077, 646)</t>
+  </si>
+  <si>
+    <t>(975, 575)</t>
+  </si>
+  <si>
+    <t>(923, 605)</t>
+  </si>
+  <si>
+    <t>(862, 408)</t>
+  </si>
+  <si>
+    <t>(1148, 511)</t>
+  </si>
+  <si>
+    <t>(1297, 801)</t>
+  </si>
+  <si>
+    <t>(1080, 625)</t>
+  </si>
+  <si>
+    <t>(1044, 627)</t>
+  </si>
+  <si>
+    <t>(1069, 622)</t>
+  </si>
+  <si>
+    <t>(1108, 603)</t>
+  </si>
+  <si>
+    <t>(1032, 628)</t>
+  </si>
+  <si>
+    <t>(1150, 504)</t>
+  </si>
+  <si>
+    <t>(1139, 875)</t>
+  </si>
+  <si>
+    <t>(1284, 816)</t>
+  </si>
+  <si>
+    <t>(1151, 885)</t>
+  </si>
+  <si>
+    <t>(1077, 661)</t>
+  </si>
+  <si>
+    <t>(1106, 886)</t>
+  </si>
+  <si>
+    <t>(1035, 620)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,37 +885,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="F2">
-        <v>0.21</v>
+        <v>-49.5</v>
       </c>
       <c r="G2">
-        <v>1235.14</v>
+        <v>41621.5</v>
       </c>
       <c r="H2">
-        <v>-1.53</v>
+        <v>1.86</v>
       </c>
       <c r="I2">
-        <v>1766.3</v>
+        <v>-945.12</v>
       </c>
       <c r="J2">
-        <v>44.97180005779255</v>
+        <v>27.10667108039441</v>
       </c>
       <c r="K2">
-        <v>303.1600569318219</v>
+        <v>61.61442448912639</v>
       </c>
       <c r="L2">
-        <v>348.1819805568585</v>
+        <v>268.8426669318705</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -593,37 +923,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="F3">
-        <v>-0.64</v>
+        <v>-0.29</v>
       </c>
       <c r="G3">
-        <v>2136.36</v>
+        <v>1697.95</v>
       </c>
       <c r="H3">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="I3">
-        <v>-333.38</v>
+        <v>-172.44</v>
       </c>
       <c r="J3">
-        <v>3.510201072048035</v>
+        <v>20.32928210472377</v>
       </c>
       <c r="K3">
-        <v>36.26733497618525</v>
+        <v>36.31647316427053</v>
       </c>
       <c r="L3">
-        <v>32.5500034921934</v>
+        <v>16.39696110585096</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -631,37 +961,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F4">
-        <v>0.52</v>
+        <v>1.9</v>
       </c>
       <c r="G4">
-        <v>936.0599999999999</v>
+        <v>-334.34</v>
       </c>
       <c r="H4">
-        <v>-0.04</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I4">
-        <v>564.96</v>
+        <v>-105.84</v>
       </c>
       <c r="J4">
-        <v>25.1838215836386</v>
+        <v>27.63578384730141</v>
       </c>
       <c r="K4">
-        <v>357.6766245513756</v>
+        <v>34.76089198076675</v>
       </c>
       <c r="L4">
-        <v>152.3593639130619</v>
+        <v>117.7647874151994</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -669,37 +999,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="F5">
-        <v>0.21</v>
+        <v>0.58</v>
       </c>
       <c r="G5">
-        <v>1229.66</v>
+        <v>917.0599999999999</v>
       </c>
       <c r="H5">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="I5">
-        <v>-232.36</v>
+        <v>-304.44</v>
       </c>
       <c r="J5">
-        <v>30.44241524573572</v>
+        <v>6.015710992258424</v>
       </c>
       <c r="K5">
-        <v>42.15786211634434</v>
+        <v>35.96051719664489</v>
       </c>
       <c r="L5">
-        <v>348.1887791067794</v>
+        <v>149.7141300756112</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -707,37 +1037,37 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="F6">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="G6">
-        <v>1055.54</v>
+        <v>1092.1</v>
       </c>
       <c r="H6">
-        <v>-0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="I6">
-        <v>908.88</v>
+        <v>941.71</v>
       </c>
       <c r="J6">
-        <v>0.4710942967588518</v>
+        <v>4.271422017383911</v>
       </c>
       <c r="K6">
-        <v>334.6592492809812</v>
+        <v>333.3677791239013</v>
       </c>
       <c r="L6">
-        <v>155.4434357350343</v>
+        <v>157.9183554985436</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -745,37 +1075,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F7">
-        <v>1.34</v>
+        <v>-1.54</v>
       </c>
       <c r="G7">
-        <v>-64.73999999999999</v>
+        <v>2836.35</v>
       </c>
       <c r="H7">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I7">
-        <v>-155.19</v>
+        <v>-124.64</v>
       </c>
       <c r="J7">
-        <v>17.13772919226978</v>
+        <v>22.39661934714515</v>
       </c>
       <c r="K7">
-        <v>36.12786700708246</v>
+        <v>34.65131591200453</v>
       </c>
       <c r="L7">
-        <v>126.7724559378949</v>
+        <v>56.95325302862278</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -783,37 +1113,873 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8">
+        <v>0.45</v>
+      </c>
+      <c r="G8">
+        <v>977.47</v>
+      </c>
+      <c r="H8">
+        <v>-0.03</v>
+      </c>
+      <c r="I8">
+        <v>557.17</v>
+      </c>
+      <c r="J8">
+        <v>22.50938731629871</v>
+      </c>
+      <c r="K8">
+        <v>358.3492816720773</v>
+      </c>
+      <c r="L8">
+        <v>155.6559989882408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9">
+        <v>-0.44</v>
+      </c>
+      <c r="G9">
+        <v>1542.34</v>
+      </c>
+      <c r="H9">
+        <v>0.36</v>
+      </c>
+      <c r="I9">
+        <v>465.61</v>
+      </c>
+      <c r="J9">
+        <v>3.950618138341833</v>
+      </c>
+      <c r="K9">
+        <v>19.65382405805331</v>
+      </c>
+      <c r="L9">
+        <v>23.52320902045962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10">
+        <v>2.9</v>
+      </c>
+      <c r="G10">
+        <v>-1214.48</v>
+      </c>
+      <c r="H10">
+        <v>0.73</v>
+      </c>
+      <c r="I10">
+        <v>-149.2</v>
+      </c>
+      <c r="J10">
+        <v>34.84494981919045</v>
+      </c>
+      <c r="K10">
+        <v>36.01655673816527</v>
+      </c>
+      <c r="L10">
+        <v>289.0344343548352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11">
+        <v>1.32</v>
+      </c>
+      <c r="G11">
+        <v>-56.81</v>
+      </c>
+      <c r="H11">
+        <v>0.74</v>
+      </c>
+      <c r="I11">
+        <v>-163.4</v>
+      </c>
+      <c r="J11">
+        <v>16.3518721814719</v>
+      </c>
+      <c r="K11">
+        <v>36.59993040354443</v>
+      </c>
+      <c r="L11">
+        <v>127.17485038667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12">
+        <v>0.76</v>
+      </c>
+      <c r="G12">
+        <v>650.47</v>
+      </c>
+      <c r="H12">
+        <v>0.82</v>
+      </c>
+      <c r="I12">
+        <v>-229.36</v>
+      </c>
+      <c r="J12">
+        <v>2.116918644690068</v>
+      </c>
+      <c r="K12">
+        <v>39.22319451195233</v>
+      </c>
+      <c r="L12">
+        <v>322.6905014188746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13">
+        <v>1.11</v>
+      </c>
+      <c r="G13">
+        <v>322.57</v>
+      </c>
+      <c r="H13">
+        <v>0.73</v>
+      </c>
+      <c r="I13">
+        <v>-134.59</v>
+      </c>
+      <c r="J13">
+        <v>11.85483800035252</v>
+      </c>
+      <c r="K13">
+        <v>35.99149625797484</v>
+      </c>
+      <c r="L13">
+        <v>311.8891593465092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14">
+        <v>-0.86</v>
+      </c>
+      <c r="G14">
+        <v>2104.89</v>
+      </c>
+      <c r="H14">
+        <v>0.21</v>
+      </c>
+      <c r="I14">
+        <v>370.76</v>
+      </c>
+      <c r="J14">
+        <v>28.83575191854404</v>
+      </c>
+      <c r="K14">
+        <v>11.88865803962798</v>
+      </c>
+      <c r="L14">
+        <v>220.7353588156958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15">
+        <v>0.14</v>
+      </c>
+      <c r="G15">
+        <v>1308.07</v>
+      </c>
+      <c r="H15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I15">
+        <v>-138.79</v>
+      </c>
+      <c r="J15">
+        <v>31.03786215779969</v>
+      </c>
+      <c r="K15">
+        <v>38.94976417710122</v>
+      </c>
+      <c r="L15">
+        <v>352.0844875769734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16">
+        <v>0.17</v>
+      </c>
+      <c r="G16">
+        <v>1281.04</v>
+      </c>
+      <c r="H16">
+        <v>-1.24</v>
+      </c>
+      <c r="I16">
+        <v>1481.62</v>
+      </c>
+      <c r="J16">
+        <v>41.46745825018725</v>
+      </c>
+      <c r="K16">
+        <v>308.6994867654154</v>
+      </c>
+      <c r="L16">
+        <v>350.4609081467413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17">
+        <v>-0.71</v>
+      </c>
+      <c r="G17">
+        <v>2235.65</v>
+      </c>
+      <c r="H17">
+        <v>0.74</v>
+      </c>
+      <c r="I17">
+        <v>-333.8</v>
+      </c>
+      <c r="J17">
+        <v>1.126689276630242</v>
+      </c>
+      <c r="K17">
+        <v>36.35887853552556</v>
+      </c>
+      <c r="L17">
+        <v>35.40042439052748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18">
+        <v>-0.79</v>
+      </c>
+      <c r="G18">
+        <v>2135.36</v>
+      </c>
+      <c r="H18">
+        <v>0.74</v>
+      </c>
+      <c r="I18">
+        <v>-154.1</v>
+      </c>
+      <c r="J18">
+        <v>1.807294446941399</v>
+      </c>
+      <c r="K18">
+        <v>36.39740820288974</v>
+      </c>
+      <c r="L18">
+        <v>38.31900939723847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19">
+        <v>-0.54</v>
+      </c>
+      <c r="G19">
+        <v>1920.91</v>
+      </c>
+      <c r="H19">
+        <v>0.75</v>
+      </c>
+      <c r="I19">
+        <v>-183.02</v>
+      </c>
+      <c r="J19">
+        <v>8.500851352565439</v>
+      </c>
+      <c r="K19">
+        <v>36.86989764584402</v>
+      </c>
+      <c r="L19">
+        <v>28.211704268684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>1326.53</v>
+      </c>
+      <c r="H20">
+        <v>0.72</v>
+      </c>
+      <c r="I20">
+        <v>-128.76</v>
+      </c>
+      <c r="J20">
+        <v>30.0432941169371</v>
+      </c>
+      <c r="K20">
+        <v>35.92175916460663</v>
+      </c>
+      <c r="L20">
+        <v>174.3869908208431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21">
+        <v>1.34</v>
+      </c>
+      <c r="G21">
+        <v>187.06</v>
+      </c>
+      <c r="H21">
+        <v>0.72</v>
+      </c>
+      <c r="I21">
+        <v>-151.22</v>
+      </c>
+      <c r="J21">
+        <v>17.51328608107389</v>
+      </c>
+      <c r="K21">
+        <v>35.93022539688598</v>
+      </c>
+      <c r="L21">
+        <v>306.7606068303497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22">
+        <v>0.44</v>
+      </c>
+      <c r="G22">
+        <v>946.78</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <v>489.72</v>
+      </c>
+      <c r="J22">
+        <v>18.03890135536712</v>
+      </c>
+      <c r="K22">
+        <v>5.900680732626916</v>
+      </c>
+      <c r="L22">
+        <v>156.0375110254218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23">
+        <v>-11.91</v>
+      </c>
+      <c r="G23">
+        <v>12071.46</v>
+      </c>
+      <c r="H23">
+        <v>0.82</v>
+      </c>
+      <c r="I23">
+        <v>-215.16</v>
+      </c>
+      <c r="J23">
+        <v>45.84877592005748</v>
+      </c>
+      <c r="K23">
+        <v>39.30959564937204</v>
+      </c>
+      <c r="L23">
+        <v>265.2022469145069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24">
+        <v>4.69</v>
+      </c>
+      <c r="G24">
+        <v>-3197.59</v>
+      </c>
+      <c r="H24">
+        <v>0.68</v>
+      </c>
+      <c r="I24">
+        <v>-282.42</v>
+      </c>
+      <c r="J24">
+        <v>43.74795476049403</v>
+      </c>
+      <c r="K24">
+        <v>34.36065319769392</v>
+      </c>
+      <c r="L24">
+        <v>282.0260924194906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25">
+        <v>0.38</v>
+      </c>
+      <c r="G25">
+        <v>715.65</v>
+      </c>
+      <c r="H25">
+        <v>0.24</v>
+      </c>
+      <c r="I25">
+        <v>603.89</v>
+      </c>
+      <c r="J25">
+        <v>7.311057731915419</v>
+      </c>
+      <c r="K25">
+        <v>13.49573328079581</v>
+      </c>
+      <c r="L25">
+        <v>159.2584121015626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26">
+        <v>2.93</v>
+      </c>
+      <c r="G26">
+        <v>-1672.5</v>
+      </c>
+      <c r="H26">
+        <v>0.72</v>
+      </c>
+      <c r="I26">
+        <v>-108.77</v>
+      </c>
+      <c r="J26">
+        <v>35.40149730166728</v>
+      </c>
+      <c r="K26">
+        <v>35.78496058767336</v>
+      </c>
+      <c r="L26">
+        <v>288.8531587644191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27">
+        <v>1.92</v>
+      </c>
+      <c r="G27">
+        <v>-832.88</v>
+      </c>
+      <c r="H27">
+        <v>0.35</v>
+      </c>
+      <c r="I27">
+        <v>487.7</v>
+      </c>
+      <c r="J27">
+        <v>43.19795115695981</v>
+      </c>
+      <c r="K27">
+        <v>19.02560603756868</v>
+      </c>
+      <c r="L27">
+        <v>297.5319767487223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28">
+        <v>0.97</v>
+      </c>
+      <c r="G28">
+        <v>443.95</v>
+      </c>
+      <c r="H28">
+        <v>0.83</v>
+      </c>
+      <c r="I28">
+        <v>-234.55</v>
+      </c>
+      <c r="J28">
+        <v>4.434869726429147</v>
+      </c>
+      <c r="K28">
+        <v>39.80557109226519</v>
+      </c>
+      <c r="L28">
+        <v>315.7496216298906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8">
-        <v>5.19</v>
-      </c>
-      <c r="G8">
-        <v>-3730.75</v>
-      </c>
-      <c r="H8">
-        <v>0.67</v>
-      </c>
-      <c r="I8">
-        <v>-272.4</v>
-      </c>
-      <c r="J8">
-        <v>45.27191617679866</v>
-      </c>
-      <c r="K8">
-        <v>33.95905981967627</v>
-      </c>
-      <c r="L8">
-        <v>280.8961521411411</v>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29">
+        <v>-1.91</v>
+      </c>
+      <c r="G29">
+        <v>3023.32</v>
+      </c>
+      <c r="H29">
+        <v>0.27</v>
+      </c>
+      <c r="I29">
+        <v>584.22</v>
+      </c>
+      <c r="J29">
+        <v>47.25565980129749</v>
+      </c>
+      <c r="K29">
+        <v>15.29468760527064</v>
+      </c>
+      <c r="L29">
+        <v>242.4222501095086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <v>1221.46</v>
+      </c>
+      <c r="H30">
+        <v>0.73</v>
+      </c>
+      <c r="I30">
+        <v>-135.78</v>
+      </c>
+      <c r="J30">
+        <v>24.81951166922065</v>
+      </c>
+      <c r="K30">
+        <v>36.14885615884981</v>
+      </c>
+      <c r="L30">
+        <v>168.4709642746457</v>
       </c>
     </row>
   </sheetData>
